--- a/pred_ohlcv/54_21/2020-01-19 ETZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 ETZ ohlcv.xlsx
@@ -834,7 +834,7 @@
         <v>-1943077.5203</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1944084.3796</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1949002.713478153</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1951002.713478153</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1950917.713478153</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-1986202.713478153</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1977384.130321846</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1991507.681321846</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1991464.681321846</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1994130.871921846</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1994087.871921846</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-2077400.822521846</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-2077357.822521846</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-2172567.743353744</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-2172526.743353744</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-2172694.548653744</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-2172526.548653744</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-2209068.300853744</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-2209109.300853744</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-2208941.300853744</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-2209025.300853744</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-2208941.300853744</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-2208899.300853744</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-2217612.118253744</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-2254134.159853743</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-2598812.414653744</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-2616899.982753743</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-3988998.787094464</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-3991964.430894463</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-3925677.617894463</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-3925677.617894463</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-3716503.730994463</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-3988370.568493983</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-4142662.077893983</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-4142662.077893983</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-4165742.331893983</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-4230637.957893983</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-4230637.957893983</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-4230593.957893983</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 ETZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 ETZ ohlcv.xlsx
@@ -834,7 +834,7 @@
         <v>-1943077.5203</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1944084.3796</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1949002.713478153</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1951002.713478153</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1950917.713478153</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1991507.681321846</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1991464.681321846</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1994130.871921846</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-2077400.822521846</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-2077357.822521846</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-2172567.743353744</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-2209068.300853744</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-2208899.300853744</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-2217612.118253744</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-2254134.159853743</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-2598812.414653744</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-2616899.982753743</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-3925677.617894463</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-3925677.617894463</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-3925677.617894463</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-3988370.568493983</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-4100862.362993983</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-4142662.077893983</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-4142662.077893983</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-4165742.331893983</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-4230637.957893983</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-4230637.957893983</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-4230593.957893983</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-4235567.957893983</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-4235523.957893983</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-4235523.957893983</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-4235523.957893983</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
